--- a/palatogram data.xlsx
+++ b/palatogram data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlach\Documents\Rice\Junior\Semester 1\LING 401\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlach\Documents\Rice\Junior\Semester 1\LING 401\Final Project\palatal-stops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064CDADF-5CF2-42D3-A5B5-EEEFAFBAE6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262ED9B4-C81D-4B22-B205-4173D309B6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>v top</t>
   </si>
@@ -142,6 +142,33 @@
   </si>
   <si>
     <t>reyhan-kapi</t>
+  </si>
+  <si>
+    <t>[c]</t>
+  </si>
+  <si>
+    <t>[k]</t>
+  </si>
+  <si>
+    <t>[t͡ʃ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave English dist: </t>
+  </si>
+  <si>
+    <t>ave Turkish dist:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave Vietnamese dist: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave English width: </t>
+  </si>
+  <si>
+    <t>ave Turkish width:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave Vietnamese width: </t>
   </si>
 </sst>
 </file>
@@ -166,7 +193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,9 +210,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +511,10 @@
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="28.7109375" customWidth="1"/>
     <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -550,7 +580,7 @@
         <v>0.35135135135135137</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -586,8 +616,17 @@
         <f t="shared" ref="J3:J28" si="4">H3/D3</f>
         <v>0.34285714285714286</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -623,8 +662,23 @@
         <f t="shared" si="4"/>
         <v>0.11904761904761904</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(I13, I10)</f>
+        <v>0.19572798605056668</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGE(I9, I15)</f>
+        <v>0.36940156279778918</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(I8, I11, I14)</f>
+        <v>0.43596363881385108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -660,8 +714,23 @@
         <f t="shared" si="4"/>
         <v>0.17857142857142858</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(I3, I6)</f>
+        <v>0.18710801393728224</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGE(I4)</f>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(I2, I5)</f>
+        <v>0.46660231660231655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -697,8 +766,23 @@
         <f t="shared" si="4"/>
         <v>0.23170731707317074</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(I18, I20, I22, I24, I26, I28)</f>
+        <v>0.43173696860763694</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGE(I17, I21, I25)</f>
+        <v>0.3088023088023088</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(I19, I23, I27)</f>
+        <v>0.5210584091606707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -735,7 +819,7 @@
         <v>0.23776223776223776</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -771,8 +855,23 @@
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(J13, J10)</f>
+        <v>0.23997384481255452</v>
+      </c>
+      <c r="N8">
+        <f>AVERAGE(J9, J15)</f>
+        <v>0.1023918429578807</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(J8, J11, J14)</f>
+        <v>0.24114859939602207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -808,8 +907,23 @@
         <f t="shared" si="4"/>
         <v>0.10101010101010101</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(J3, J6)</f>
+        <v>0.28728222996515679</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(J4)</f>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(J2, J5)</f>
+        <v>0.26496138996138996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -845,8 +959,23 @@
         <f t="shared" si="4"/>
         <v>0.27027027027027029</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(J18, J20, J22, J24, J26, J28)</f>
+        <v>0.23443084265425748</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGE(J17, J21, J25)</f>
+        <v>0.22164502164502164</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(J19, J23, J27)</f>
+        <v>0.19277312148501924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -883,7 +1012,7 @@
         <v>0.2878787878787879</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -920,7 +1049,7 @@
         <v>0.5541666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -957,7 +1086,7 @@
         <v>0.20967741935483872</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -994,7 +1123,7 @@
         <v>0.18556701030927836</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1160,7 @@
         <v>0.10377358490566038</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1368,103 +1497,152 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
+      <c r="B25">
+        <v>1009</v>
+      </c>
+      <c r="C25">
+        <v>1537</v>
+      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="E25">
+        <v>1121</v>
+      </c>
+      <c r="F25">
+        <v>1241</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>120</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0.22727272727272727</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="B26">
+        <v>1625</v>
+      </c>
+      <c r="C26">
+        <v>2217</v>
+      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>592</v>
+      </c>
+      <c r="E26">
+        <v>1993</v>
+      </c>
+      <c r="F26">
+        <v>2097</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>104</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0.17567567567567569</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
+      <c r="B27">
+        <v>913</v>
+      </c>
+      <c r="C27">
+        <v>1561</v>
+      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>648</v>
+      </c>
+      <c r="E27">
+        <v>1313</v>
+      </c>
+      <c r="F27">
+        <v>1417</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>104</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0.16049382716049382</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
+      <c r="B28">
+        <v>1121</v>
+      </c>
+      <c r="C28">
+        <v>1721</v>
+      </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E28">
+        <v>1321</v>
+      </c>
+      <c r="F28">
+        <v>1493</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>172</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0.28666666666666668</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>